--- a/biology/Botanique/Entyloma/Entyloma.xlsx
+++ b/biology/Botanique/Entyloma/Entyloma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entyloma est un genre de champignon phytoparasite de la famille des Entylomataceae, de la classe des Exobasidiomycetes et de la sous-division des Ustilaginomycotina. Son espèce type est Entyloma microsporum[1].
-Les espèces de ce genre provoquent des maladies fongiques sur certaines Dicotylédones herbacées. Leurs sores forment des taches ou plus rarement des pustules sur les feuilles de ces plantes et, plus rarement sur les tiges. Elles peuvent apparaître initialement vert pâle, jaunissant à mesure que la saison avance ; beaucoup devenant finalement marron lorsque le tissu foliaire meurt[2],[3].
-Les spores, sont soit seules, soit en groupes, généralement jaunes à rougeâtres, rarement sombres, souvent lisses et avec une enveloppe gélatineuse épaisse, incolore et rarement verruqueuse[2],[3].
-Entyloma est la forme reproductrice sexuée de ce champignon, sa forme reproductrice asexuée étant nommée Entylomella[4],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entyloma est un genre de champignon phytoparasite de la famille des Entylomataceae, de la classe des Exobasidiomycetes et de la sous-division des Ustilaginomycotina. Son espèce type est Entyloma microsporum.
+Les espèces de ce genre provoquent des maladies fongiques sur certaines Dicotylédones herbacées. Leurs sores forment des taches ou plus rarement des pustules sur les feuilles de ces plantes et, plus rarement sur les tiges. Elles peuvent apparaître initialement vert pâle, jaunissant à mesure que la saison avance ; beaucoup devenant finalement marron lorsque le tissu foliaire meurt,.
+Les spores, sont soit seules, soit en groupes, généralement jaunes à rougeâtres, rarement sombres, souvent lisses et avec une enveloppe gélatineuse épaisse, incolore et rarement verruqueuse,.
+Entyloma est la forme reproductrice sexuée de ce champignon, sa forme reproductrice asexuée étant nommée Entylomella,.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Ensemble des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Index Fungorum[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Index Fungorum :
 Entyloma acanthocephali
 Entyloma achilleae
 Entyloma aeschynomenis
